--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/KNN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,679 +485,679 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1, 2, 8, 11, 15, 16, 17, 19, 27, 29, 30, 31, 32, 36, 37, 43, 44]</t>
+          <t>[1, 4, 6, 8, 11, 12, 13, 14, 15, 16, 17, 18, 19, 23, 24, 27, 28, 29, 30, 32, 33, 34, 35, 36, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4924603174603175</t>
+          <t>1.3741269841269843</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.07342086505154374</t>
+          <t>0.08252316872128142</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.10779761754747942</t>
+          <t>0.08941303503255604</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8278822091096121</t>
+          <t>0.8403575652924166</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7475523948669434</t>
+          <t>9.80489706993103</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 8, 10, 16, 18, 19, 20, 26, 31, 32, 33, 36, 39, 42, 44]</t>
+          <t>[0, 1, 3, 5, 8, 10, 11, 12, 13, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 34, 35, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.581547619047619</t>
+          <t>1.048888888888889</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07992871820700787</t>
+          <t>0.07950012786081537</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.09542930978091473</t>
+          <t>0.0674311721937784</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8651127180145352</t>
+          <t>0.9092037132772286</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6665306091308594</t>
+          <t>10.204631567001343</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 15, 18, 19, 20, 26, 28, 29, 34, 35, 36, 37, 41]</t>
+          <t>[0, 5, 10, 13, 15, 18, 20, 21, 22, 24, 25, 26, 27, 29, 30, 31, 35, 41, 43]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5878968253968254</t>
+          <t>0.24984126984126984</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.07866257193854129</t>
+          <t>0.08474406018062662</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.060666547293809416</t>
+          <t>0.11339993499099624</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.945486257845393</t>
+          <t>0.7432134454490784</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7241134643554688</t>
+          <t>9.950745582580566</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 8, 10, 11, 13, 14, 15, 18, 21, 23, 24, 26, 29, 31, 32, 34, 35, 37, 44]</t>
+          <t>[1, 7, 8, 9, 11, 13, 15, 19, 21, 23, 24, 26, 27, 28, 29, 30, 31, 32, 34, 36, 37, 43]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.39940476190476193</t>
+          <t>0.9352380952380952</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.08302671751470363</t>
+          <t>0.07785707659004194</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.10462875935727362</t>
+          <t>0.05957073379380793</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8378527492135043</t>
+          <t>0.9291381365856747</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.6380655765533447</t>
+          <t>10.157870769500732</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2, 7, 11, 16, 19, 25, 27, 28, 31, 32, 35, 36, 37, 38, 40, 41, 43]</t>
+          <t>[0, 7, 20, 22, 23, 25, 27, 30, 31, 32, 33, 36, 37, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8305555555555555</t>
+          <t>0.27634920634920634</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.07720431658750548</t>
+          <t>0.07239638304983427</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.07506135806497226</t>
+          <t>0.08538494704572001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9165473227841168</t>
+          <t>0.8544174588270048</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.707963705062866</t>
+          <t>9.898735523223877</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[0, 15, 16, 19, 21, 22, 24, 26, 29, 32, 33, 34, 35, 36, 37, 41]</t>
+          <t>[2, 3, 8, 9, 10, 12, 15, 18, 19, 21, 22, 23, 25, 28, 29, 33, 34, 36, 37, 38, 39, 43]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5559523809523809</t>
+          <t>0.5171428571428571</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07601176291536953</t>
+          <t>0.08002024471341494</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.09225122459511814</t>
+          <t>0.06524963189806908</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.8739474260850512</t>
+          <t>0.9149835823817445</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.572042465209961</t>
+          <t>9.93784499168396</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 3, 7, 8, 10, 12, 13, 14, 16, 17, 19, 20, 22, 24, 27, 28, 29, 30, 31, 32, 35, 36, 37, 42, 44]</t>
+          <t>[2, 3, 4, 5, 9, 14, 15, 18, 19, 20, 21, 24, 25, 26, 27, 28, 31, 32, 33, 34, 35, 37, 42]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9757936507936507</t>
+          <t>0.6906349206349207</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07964582909624882</t>
+          <t>0.08112836613952222</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.10260328991782298</t>
+          <t>0.0691099084208021</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.8440698807343757</t>
+          <t>0.90462659150082</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.709071159362793</t>
+          <t>9.907531499862671</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 8, 10, 13, 14, 18, 20, 21, 23, 24, 26, 28, 31, 33, 34, 35, 37, 44]</t>
+          <t>[0, 2, 3, 5, 6, 7, 9, 11, 12, 14, 15, 16, 17, 21, 23, 24, 25, 27, 28, 29, 31, 32, 35, 36, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.6125</t>
+          <t>1.0374603174603174</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0801824386057884</t>
+          <t>0.0833917194798158</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.09639690928906071</t>
+          <t>0.05429058032846743</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.8623634882064767</t>
+          <t>0.9411433367680796</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.6955275535583496</t>
+          <t>10.212510824203491</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[0, 3, 9, 12, 14, 15, 16, 17, 21, 28, 31, 32, 35, 36, 37, 39, 41, 44]</t>
+          <t>[0, 4, 5, 7, 8, 10, 13, 16, 17, 18, 19, 20, 21, 22, 23, 24, 26, 30, 31, 32, 33, 34, 35, 37, 38, 43]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.5767857142857142</t>
+          <t>0.5017460317460317</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07355699632188335</t>
+          <t>0.07863378593198136</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.06272086220051333</t>
+          <t>0.1222398083135511</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9417318166877964</t>
+          <t>0.7016184336853655</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.637300968170166</t>
+          <t>10.262607336044312</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 6, 8, 14, 16, 23, 25, 28, 32, 33, 34, 35, 36, 37, 38, 40, 41, 42, 44]</t>
+          <t>[0, 2, 4, 8, 10, 17, 20, 25, 28, 30, 31, 34, 35, 36, 37, 40, 42]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0069444444444444</t>
+          <t>0.45904761904761904</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0805567976818021</t>
+          <t>0.07483804628226781</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.07860892701779881</t>
+          <t>0.060893647635387405</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9084725896013871</t>
+          <t>0.9259558676133905</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.5707876682281494</t>
+          <t>10.307353734970093</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 6, 8, 12, 14, 15, 16, 20, 23, 25, 27, 29, 31, 35, 37, 43, 44]</t>
+          <t>[2, 3, 7, 10, 12, 13, 15, 17, 18, 22, 23, 25, 26, 27, 28, 29, 31, 33, 34, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4353174603174603</t>
+          <t>0.5034920634920634</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.07834509847515639</t>
+          <t>0.08020835574183062</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.1103490607977956</t>
+          <t>0.07450763980415602</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.8196381336964518</t>
+          <t>0.8891467879261049</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.5038137435913086</t>
+          <t>9.653621435165405</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 8, 9, 13, 25, 26, 27, 28, 30, 31, 32, 33, 34, 35, 37, 40]</t>
+          <t>[0, 1, 6, 7, 11, 15, 16, 17, 18, 21, 22, 24, 25, 26, 28, 29, 31, 33, 35, 37]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7222222222222221</t>
+          <t>0.6455555555555555</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0787496150148825</t>
+          <t>0.07871665907652771</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.05837919874857391</t>
+          <t>0.06474768769799662</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9495194941384546</t>
+          <t>0.9162865586538608</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.5290071964263916</t>
+          <t>10.16815733909607</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 6, 12, 14, 28, 29, 30, 31, 32, 33, 34, 35, 37, 40, 42]</t>
+          <t>[5, 7, 12, 15, 17, 18, 19, 20, 21, 25, 27, 28, 30, 31, 33, 34, 35, 36, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.4744047619047619</t>
+          <t>0.4392063492063492</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.07979547796895299</t>
+          <t>0.07933183409116748</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.06055267772490876</t>
+          <t>0.09012516041373896</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9456907076114007</t>
+          <t>0.8378045113575219</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.565580368041992</t>
+          <t>10.19158148765564</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 7, 8, 11, 13, 14, 16, 29, 33, 35, 36, 37, 39, 41, 42]</t>
+          <t>[4, 7, 10, 13, 17, 18, 20, 24, 25, 26, 28, 31, 32, 33, 37, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.9305555555555556</t>
+          <t>0.32095238095238093</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.07189309588911517</t>
+          <t>0.07596443250676464</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.08241529232533962</t>
+          <t>0.08229424330480975</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.8993941939309831</t>
+          <t>0.8647660972959286</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.577333688735962</t>
+          <t>10.015010595321655</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[6, 7, 8, 14, 16, 19, 21, 23, 24, 25, 26, 29, 31, 34, 36, 37, 38, 40, 42, 43, 44]</t>
+          <t>[2, 3, 4, 5, 9, 12, 16, 17, 18, 22, 23, 25, 26, 27, 28, 29, 31, 32, 34, 35, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.522420634920635</t>
+          <t>0.7485714285714286</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07641615574940744</t>
+          <t>0.07552507441593519</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.12321624953820876</t>
+          <t>0.08801902627372067</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.7751238437338592</t>
+          <t>0.8452966249221907</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.6251049041748047</t>
+          <t>9.969757556915283</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 3, 8, 11, 12, 13, 14, 15, 16, 19, 21, 22, 23, 25, 27, 29, 32, 34, 36, 38, 44]</t>
+          <t>[1, 2, 5, 10, 11, 12, 13, 15, 17, 21, 22, 23, 24, 25, 26, 28, 31, 32, 33, 34, 37, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6047619047619048</t>
+          <t>0.936031746031746</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.075302081305473</t>
+          <t>0.08441391454042732</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.10417503189495586</t>
+          <t>0.07180609641059735</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.8392560180620119</t>
+          <t>0.8970398172668095</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.516969919204712</t>
+          <t>10.124613046646118</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[2, 3, 6, 7, 12, 14, 16, 17, 19, 21, 22, 27, 30, 32, 33, 34, 35, 37, 41]</t>
+          <t>[3, 4, 5, 8, 20, 23, 24, 25, 26, 27, 29, 30, 32, 33, 34, 35, 37, 43, 44]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1167,69 +1167,69 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5777777777777777</t>
+          <t>0.26301587301587304</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.08211594741932905</t>
+          <t>0.08074414476078988</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.08586489882401951</t>
+          <t>0.08332048283594272</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.8907959454383246</t>
+          <t>0.8613722338862921</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.4673755168914795</t>
+          <t>10.220086097717285</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[3, 13, 15, 19, 21, 22, 23, 25, 29, 32, 33, 34, 35, 36, 37, 38, 40, 43, 44]</t>
+          <t>[1, 2, 3, 6, 8, 9, 10, 11, 13, 14, 15, 16, 17, 19, 21, 23, 24, 27, 28, 29, 30, 31, 32, 33, 34, 36, 37, 38, 40, 44]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.6988095238095238</t>
+          <t>1.1311111111111112</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.07355347974166238</t>
+          <t>0.07863059870488943</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.06055267772490876</t>
+          <t>0.060697565556063</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9456907076114007</t>
+          <t>0.9264319550974331</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.631934642791748</t>
+          <t>10.111381769180298</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1241,79 +1241,79 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 6, 11, 13, 16, 18, 19, 21, 22, 24, 25, 26, 27, 28, 29, 30, 31, 32, 35, 37, 39, 42, 43, 44]</t>
+          <t>[0, 1, 4, 8, 11, 12, 14, 15, 17, 21, 24, 25, 26, 28, 31, 32, 34, 35, 42]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.9892857142857143</t>
+          <t>0.8885714285714286</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07934098477705558</t>
+          <t>0.08020611857255096</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.11093126208293234</t>
+          <t>0.058731601060603704</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.8177299358803797</t>
+          <t>0.9311204423671848</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.617199659347534</t>
+          <t>10.204022645950317</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[3, 4, 11, 13, 14, 15, 16, 17, 19, 21, 23, 28, 29, 31, 32, 33, 34, 36, 37, 39, 42, 44]</t>
+          <t>[2, 4, 6, 7, 8, 13, 16, 19, 21, 22, 23, 25, 26, 28, 30, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.7765873015873016</t>
+          <t>1.0073015873015874</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.07069838660741054</t>
+          <t>0.08025735754783674</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.08699772850415452</t>
+          <t>0.0638314031913996</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.887895443454912</t>
+          <t>0.9186391547007375</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.636828660964966</t>
+          <t>9.866641521453857</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1325,79 +1325,79 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[1, 5, 7, 9, 11, 14, 20, 25, 27, 29, 31, 32, 33, 34, 35, 37, 38, 39, 41, 42, 43, 44]</t>
+          <t>[3, 4, 16, 18, 19, 20, 21, 24, 27, 28, 29, 32, 33, 37, 42]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8303571428571428</t>
+          <t>0.46317460317460313</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.07946527248958599</t>
+          <t>0.08044021443887106</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.061184028966318034</t>
+          <t>0.09431533938693287</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9445522941415849</t>
+          <t>0.8223720381174777</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.4761838912963867</t>
+          <t>9.910910606384277</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[3, 7, 9, 12, 15, 16, 18, 19, 22, 23, 24, 25, 26, 27, 30, 32, 33, 34, 35, 38, 41, 42]</t>
+          <t>[3, 5, 6, 8, 9, 15, 16, 17, 21, 24, 27, 31, 32, 34, 35, 36, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5371031746031746</t>
+          <t>0.363015873015873</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.07946201392807742</t>
+          <t>0.07808287749530798</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.09080867504474317</t>
+          <t>0.08101876284573883</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.8778588185781687</t>
+          <t>0.8689255984722999</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.515263557434082</t>
+          <t>10.276084661483765</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1409,79 +1409,79 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[4, 7, 10, 11, 13, 15, 16, 19, 25, 26, 27, 29, 31, 32, 33, 35, 36, 37, 38, 39]</t>
+          <t>[7, 8, 12, 13, 15, 16, 19, 21, 29, 30, 33, 34, 36, 37, 38, 42]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.6454365079365079</t>
+          <t>0.26317460317460317</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.07346800595381475</t>
+          <t>0.07766148724751866</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.05778869457132317</t>
+          <t>0.08396225898369546</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9505355475210384</t>
+          <t>0.8592284481394343</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.5500383377075195</t>
+          <t>10.155785322189331</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[8, 9, 11, 16, 17, 18, 22, 24, 25, 28, 31, 32, 33, 35, 36, 37, 38, 40, 41, 43, 44]</t>
+          <t>[0, 4, 6, 7, 8, 10, 11, 12, 13, 14, 25, 26, 27, 29, 31, 33, 34, 35, 37]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.9119047619047619</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.07387596175410185</t>
+          <t>0.07911225507369832</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.07747176272826845</t>
+          <t>0.06263828038431664</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9111015244713653</t>
+          <t>0.9216522873300065</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.584043264389038</t>
+          <t>10.191819429397583</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1493,331 +1493,331 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[0, 6, 8, 12, 17, 19, 21, 23, 26, 29, 32, 33, 34, 35, 37, 39, 44]</t>
+          <t>[2, 3, 4, 8, 11, 12, 13, 16, 18, 19, 21, 23, 25, 26, 27, 29, 31, 32, 33, 34, 35, 36, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.44107142857142856</t>
+          <t>0.7398412698412697</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06999040850979213</t>
+          <t>0.08035639806079334</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.10444269917619857</t>
+          <t>0.05066117932024357</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.8384289258267987</t>
+          <t>0.9487495999634252</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.5340633392333984</t>
+          <t>10.35958456993103</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 6, 15, 18, 19, 23, 29, 30, 33, 34, 35, 36, 39, 43]</t>
+          <t>[0, 1, 2, 3, 5, 7, 8, 9, 11, 16, 19, 21, 22, 24, 27, 28, 29, 30, 31, 32, 33, 34, 36, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.27162698412698416</t>
+          <t>1.1534920634920636</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.07082470248173563</t>
+          <t>0.08338778411203937</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.07096232350726947</t>
+          <t>0.09034688606472135</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9254130080919065</t>
+          <t>0.8370054639427839</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.5919811725616455</t>
+          <t>10.304731130599976</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 2, 8, 16, 17, 20, 21, 25, 27, 31, 32, 33, 34, 35, 36, 37, 39, 40, 41, 42, 43]</t>
+          <t>[3, 6, 8, 9, 11, 12, 13, 17, 22, 23, 25, 27, 31, 32, 33, 34, 36, 37, 40, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.8841269841269841</t>
+          <t>0.627936507936508</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.07599400443128693</t>
+          <t>0.07541871942978126</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.05908426128756807</t>
+          <t>0.06327526385618991</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9482927955424082</t>
+          <t>0.9200507123288634</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.708024501800537</t>
+          <t>9.957723617553711</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[0, 3, 6, 8, 14, 17, 18, 20, 21, 22, 24, 25, 26, 29, 32, 33, 34, 37, 40, 41, 43, 44]</t>
+          <t>[1, 2, 8, 9, 12, 20, 21, 22, 23, 27, 28, 31, 32, 35, 36, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6047619047619048</t>
+          <t>0.4741269841269842</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0800964699052844</t>
+          <t>0.07646724374422664</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.10024328252714709</t>
+          <t>0.11162102405011753</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.8511605703463712</t>
+          <t>0.751206703733792</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.6488428115844727</t>
+          <t>9.971631288528442</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[2, 4, 5, 7, 12, 15, 19, 23, 31, 33, 36, 37, 42]</t>
+          <t>[2, 3, 5, 9, 13, 15, 16, 17, 18, 19, 20, 21, 26, 29, 30, 31, 33, 34, 36, 37, 39]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.39384920634920634</t>
+          <t>0.20507936507936508</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.0747718982510257</t>
+          <t>0.07511994523725843</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.07607428802843781</t>
+          <t>0.10791719127089022</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9142797890156673</t>
+          <t>0.7674437926632414</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.4652464389801025</t>
+          <t>9.931191444396973</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 6, 8, 12, 14, 15, 17, 19, 20, 24, 25, 26, 28, 29, 30, 31, 32, 33, 34, 35, 37, 40]</t>
+          <t>[9, 11, 12, 13, 14, 17, 19, 24, 27, 28, 29, 32, 34, 35, 36, 38, 41, 42]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.9109126984126985</t>
+          <t>0.9084126984126983</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0777709173297493</t>
+          <t>0.07380496981629023</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.08317309584088001</t>
+          <t>0.058111095385682494</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.8975355596945493</t>
+          <t>0.9325681937806474</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.594782829284668</t>
+          <t>9.84437084197998</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 8, 11, 13, 14, 15, 17, 20, 21, 22, 23, 25, 27, 31, 32, 33, 35, 36, 37, 39, 40, 43, 44]</t>
+          <t>[1, 5, 8, 9, 10, 11, 12, 15, 23, 24, 25, 28, 29, 33, 35, 36, 37, 38, 42, 43]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.9444444444444444</t>
+          <t>0.8685714285714285</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.07931327714054737</t>
+          <t>0.07805712862988932</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.053218058521531886</t>
+          <t>0.06012519549977488</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9580506252836862</t>
+          <t>0.9278128872148896</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.484279155731201</t>
+          <t>10.44754672050476</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[1, 4, 14, 15, 16, 17, 20, 21, 24, 25, 27, 28, 32, 33, 34, 36, 40, 44]</t>
+          <t>[5, 6, 10, 11, 13, 15, 20, 25, 30, 31, 32, 33, 34, 35, 38, 42]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.4833333333333333</t>
+          <t>0.33206349206349206</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.07320209896186688</t>
+          <t>0.07896538334303224</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.08532450792618912</t>
+          <t>0.06491328582781344</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.8921661719004068</t>
+          <t>0.9158578015044893</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.515033721923828</t>
+          <t>10.279106140136719</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1829,7 +1829,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 15, 16, 17, 18, 20, 21, 25, 31, 32, 34, 37, 40, 41, 43, 44]</t>
+          <t>[0, 3, 4, 6, 9, 10, 12, 14, 19, 20, 24, 26, 27, 28, 32, 34, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1839,531 +1839,531 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.4978174603174603</t>
+          <t>0.5987301587301587</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.07875029084718228</t>
+          <t>0.08301875824372892</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.1137589974758368</t>
+          <t>0.07061863535386753</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.8083190511965692</t>
+          <t>0.9004169758524442</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.5879151821136475</t>
+          <t>10.311153650283813</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[8, 10, 11, 12, 14, 16, 19, 21, 25, 26, 28, 29, 30, 33, 34, 35, 36, 38, 39, 41, 42]</t>
+          <t>[0, 1, 3, 5, 7, 9, 10, 11, 12, 16, 17, 18, 19, 22, 23, 24, 26, 27, 29, 31, 32, 33, 34, 37, 43]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8615079365079364</t>
+          <t>0.6725396825396825</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.08208456685992369</t>
+          <t>0.08419742220475239</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.09878847403250908</t>
+          <t>0.06250374766039254</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.8554493688469424</t>
+          <t>0.9219884719130365</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.588315010070801</t>
+          <t>9.739200353622437</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 5, 7, 9, 10, 13, 17, 19, 20, 22, 23, 27, 28, 31, 33, 34, 36, 37, 42]</t>
+          <t>[0, 8, 10, 11, 13, 15, 16, 17, 18, 19, 20, 21, 23, 29, 30, 31, 33, 34, 35, 36, 40]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.9238095238095239</t>
+          <t>0.28523809523809524</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.07826682188400816</t>
+          <t>0.06814129409023188</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.07359256925455192</t>
+          <t>0.10352556470712275</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9197813463555118</t>
+          <t>0.7859861473048965</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.4594082832336426</t>
+          <t>10.438718557357788</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[3, 6, 12, 16, 17, 20, 23, 25, 26, 28, 35, 37, 38, 40, 41, 42]</t>
+          <t>[2, 8, 9, 11, 13, 14, 15, 18, 21, 23, 25, 31, 33, 35, 36, 37, 38, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.5097222222222222</t>
+          <t>0.6596825396825396</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.07485485563437752</t>
+          <t>0.08243032959886076</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.09082556268426892</t>
+          <t>0.04072949025824083</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.8778133852968337</t>
+          <t>0.9668743340050431</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.531970500946045</t>
+          <t>10.504511594772339</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 15, 16, 17, 18, 19, 20, 23, 28, 29, 32, 35, 37]</t>
+          <t>[3, 6, 8, 11, 15, 19, 21, 22, 23, 24, 28, 30, 31, 33, 34, 36, 38, 40]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.5035714285714286</t>
+          <t>0.48777777777777775</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.0821387674386687</t>
+          <t>0.0800959028460267</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.06056044836051661</t>
+          <t>0.09458990295788522</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9456767678546274</t>
+          <t>0.8213363390293853</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.556154251098633</t>
+          <t>10.236048460006714</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[0, 1, 10, 16, 17, 19, 20, 23, 24, 27, 29, 30, 31, 32, 33, 34, 37, 38, 40, 43, 44]</t>
+          <t>[2, 7, 8, 12, 15, 17, 18, 20, 21, 23, 24, 25, 26, 29, 30, 31, 32, 33, 34, 35, 36, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.5569444444444445</t>
+          <t>0.32555555555555554</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.07372254489214837</t>
+          <t>0.0757293553599295</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.08039489694159282</t>
+          <t>0.0825150452056465</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9042663970668795</t>
+          <t>0.8640394374518637</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.627885103225708</t>
+          <t>10.268277883529663</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[6, 11, 12, 15, 16, 17, 21, 23, 24, 26, 27, 31, 36, 38, 41, 43, 44]</t>
+          <t>[2, 4, 5, 10, 11, 15, 16, 17, 20, 21, 23, 24, 25, 30, 35, 36, 37, 38, 43, 44]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.2359126984126984</t>
+          <t>0.3568253968253968</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.07461418650617935</t>
+          <t>0.07969299720344825</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.12829522906326551</t>
+          <t>0.07511149367652782</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.7562029472069619</t>
+          <t>0.8873426669339438</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.610180139541626</t>
+          <t>10.358615159988403</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 12, 15, 16, 17, 18, 19, 21, 22, 23, 24, 25, 26, 28, 30, 31, 32, 33, 34, 36, 38, 40, 42, 44]</t>
+          <t>[2, 7, 8, 9, 11, 12, 13, 17, 19, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 44]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.8595238095238095</t>
+          <t>0.6015873015873016</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.08064051885299414</t>
+          <t>0.08041350213499406</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.09993124042367438</t>
+          <t>0.06291063831408752</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.852085757166285</t>
+          <t>0.9209694776489454</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2.558645725250244</t>
+          <t>10.842357158660889</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[6, 11, 14, 17, 20, 25, 26, 28, 29, 31, 32, 34, 36, 40, 41, 43]</t>
+          <t>[0, 3, 4, 5, 7, 8, 9, 11, 12, 13, 14, 16, 19, 20, 22, 23, 26, 27, 28, 29, 31, 33, 35, 36, 39, 42]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.5035714285714286</t>
+          <t>1.1757142857142857</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.07627292698697695</t>
+          <t>0.07843088037773874</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.08445401126658976</t>
+          <t>0.09264786318061984</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.8943552300010956</t>
+          <t>0.8285973691953668</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2.5286905765533447</t>
+          <t>10.707989931106567</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 13, 14, 18, 20, 22, 23, 25, 27, 29, 30, 31, 33, 34, 35, 37, 40, 42, 43, 44]</t>
+          <t>[3, 4, 8, 9, 11, 13, 15, 16, 17, 20, 21, 24, 25, 26, 27, 32, 33, 34, 36, 39, 41]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.489484126984127</t>
+          <t>0.636984126984127</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.07587256866804738</t>
+          <t>0.07798066341004106</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.07326145922444877</t>
+          <t>0.07049216355260564</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9205015671221299</t>
+          <t>0.9007733454311427</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.580496072769165</t>
+          <t>10.668102502822876</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 13, 16, 17, 19, 22, 26, 27, 28, 29, 30, 31, 33, 34, 35, 37, 40]</t>
+          <t>[3, 5, 6, 8, 9, 12, 15, 18, 19, 20, 21, 22, 24, 25, 26, 28, 30, 31, 32, 33, 34, 36, 43]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.7325396825396826</t>
+          <t>0.6598412698412699</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.06634025889819066</t>
+          <t>0.07525383197361463</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0714645151895739</t>
+          <t>0.10254518113010361</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9243535865771392</t>
+          <t>0.7900203623012566</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.602701425552368</t>
+          <t>10.60665249824524</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[2, 4, 5, 6, 7, 8, 14, 15, 17, 24, 25, 26, 31, 32, 34, 35, 37]</t>
+          <t>[0, 4, 7, 9, 10, 18, 19, 20, 24, 26, 29, 30, 31, 32, 34, 35, 36, 39, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.45277777777777783</t>
+          <t>0.2741269841269841</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.07613858493197037</t>
+          <t>0.0820259926369022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.07636240246989011</t>
+          <t>0.11840191067365372</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9136292670329155</t>
+          <t>0.7200605593830117</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.599398374557495</t>
+          <t>9.831006526947021</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 11, 13, 14, 15, 17, 20, 25, 27, 30, 31, 32, 34, 35, 37, 39]</t>
+          <t>[1, 7, 8, 10, 15, 17, 18, 22, 23, 25, 26, 27, 29, 30, 31, 33, 34, 35, 36]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.4902777777777778</t>
+          <t>0.33444444444444443</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.07812233898511396</t>
+          <t>0.07905544654010657</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.07238048471169645</t>
+          <t>0.07405999023739328</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9224020206288835</t>
+          <t>0.8904748214342234</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.651223659515381</t>
+          <t>10.033849954605103</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2375,37 +2375,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[1, 6, 7, 12, 13, 17, 18, 19, 20, 22, 24, 25, 26, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 44]</t>
+          <t>[4, 5, 6, 11, 12, 13, 14, 15, 17, 18, 19, 21, 23, 24, 26, 27, 29, 35, 36, 37, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0119047619047619</t>
+          <t>0.9044444444444444</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.07642083016166754</t>
+          <t>0.08115609402011516</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.07892047505816491</t>
+          <t>0.07661486495626382</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9077456571000263</t>
+          <t>0.8827878182562039</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2.6087026596069336</t>
+          <t>10.454034805297852</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2417,121 +2417,121 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 6, 7, 8, 11, 14, 15, 16, 20, 23, 24, 25, 28, 29, 31, 32, 33, 35, 37, 38, 40, 41, 42]</t>
+          <t>[0, 4, 5, 8, 9, 11, 17, 18, 19, 23, 25, 28, 31, 32, 34, 36, 37, 39, 40]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.8414682539682539</t>
+          <t>0.6749206349206349</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.07811705037551236</t>
+          <t>0.076899606567188</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.0622690854033325</t>
+          <t>0.0632091247518224</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.9425682020941917</t>
+          <t>0.9202177605688784</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.556776285171509</t>
+          <t>10.687517881393433</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 7, 8, 11, 12, 13, 14, 19, 22, 25, 27, 29, 30, 32, 33, 34, 35, 36, 37, 38, 39, 41, 42]</t>
+          <t>[0, 2, 7, 8, 10, 12, 15, 16, 17, 18, 21, 23, 25, 26, 29, 30, 32, 33, 34, 35, 36, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.010515873015873</t>
+          <t>0.416984126984127</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.08068793316201042</t>
+          <t>0.07870182470338236</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.05928038775593785</t>
+          <t>0.09872970870702169</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9479489482086679</t>
+          <t>0.8053553907346254</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.6243441104888916</t>
+          <t>10.488640069961548</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[1, 2, 15, 17, 20, 24, 27, 28, 29, 31, 35, 37, 39, 40, 44]</t>
+          <t>[0, 4, 5, 6, 7, 10, 11, 13, 15, 17, 18, 19, 20, 22, 24, 26, 27, 32, 33, 34, 35, 36, 43, 44]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.44305555555555554</t>
+          <t>0.5836507936507936</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.07456955907908507</t>
+          <t>0.08152110693300954</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.10584499774916022</t>
+          <t>0.11473652456949705</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.8340611353711792</t>
+          <t>0.7371245371005349</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.6051840782165527</t>
+          <t>10.569875478744507</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 7, 8, 12, 14, 15, 16, 17, 22, 23, 26, 29, 31, 32, 33, 34, 35, 37, 38, 43, 44]</t>
+          <t>[1, 2, 4, 6, 9, 11, 12, 13, 16, 17, 20, 22, 23, 24, 25, 26, 31, 32, 33, 34, 35, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2553,69 +2553,69 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.6761904761904762</t>
+          <t>0.596984126984127</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.07842693547905158</t>
+          <t>0.08447335955105528</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.10418005070951655</t>
+          <t>0.06828590977189822</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.839240529443375</t>
+          <t>0.9068873110156884</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.6449146270751953</t>
+          <t>10.264970064163208</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 5, 8, 9, 12, 14, 15, 16, 19, 20, 23, 24, 25, 26, 27, 28, 31, 33, 34, 35, 37, 39, 40, 44]</t>
+          <t>[11, 14, 15, 17, 18, 19, 21, 23, 29, 30, 33, 34, 35, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.019047619047619</t>
+          <t>0.29873015873015873</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.07829259967437277</t>
+          <t>0.07492916081730272</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.09901737836254083</t>
+          <t>0.09345399404454734</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.8547787116599626</t>
+          <t>0.8256016374244326</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.610215663909912</t>
+          <t>10.2389976978302</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2627,37 +2627,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[6, 12, 16, 17, 19, 20, 23, 26, 27, 28, 30, 31, 32, 33, 34, 37, 38, 44]</t>
+          <t>[1, 3, 4, 5, 9, 11, 15, 17, 19, 20, 21, 22, 23, 25, 27, 28, 29, 31, 32, 33, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.5994047619047619</t>
+          <t>1.0019047619047619</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.07216983830605662</t>
+          <t>0.07955617303312487</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.08430529832982185</t>
+          <t>0.060379738896497046</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.8947269568483824</t>
+          <t>0.9272003770015016</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.6447737216949463</t>
+          <t>10.429280042648315</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2669,121 +2669,121 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[1, 2, 10, 13, 14, 16, 17, 18, 22, 23, 24, 25, 26, 27, 28, 31, 32, 33, 34, 36]</t>
+          <t>[3, 8, 9, 11, 12, 15, 17, 19, 20, 21, 22, 31, 32, 34, 35, 36, 37, 38, 40, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.6339285714285714</t>
+          <t>0.693015873015873</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.07555888033910928</t>
+          <t>0.0787268755384397</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.07537832042688594</t>
+          <t>0.11016696651399811</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9158410417742718</t>
+          <t>0.7576464133863667</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.5576493740081787</t>
+          <t>10.436191320419312</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 7, 13, 15, 16, 20, 23, 24, 25, 26, 27, 28, 31, 32, 33, 35, 36, 37, 39, 42]</t>
+          <t>[2, 3, 4, 7, 9, 11, 12, 13, 15, 17, 24, 25, 27, 28, 31, 32, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.7621031746031746</t>
+          <t>0.6834920634920634</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.07961866348797973</t>
+          <t>0.07483197812310613</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.052278387669093394</t>
+          <t>0.06892405273281635</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9595189463304691</t>
+          <t>0.905138872770199</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.4768426418304443</t>
+          <t>10.267658710479736</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[0, 3, 6, 7, 15, 16, 17, 19, 23, 25, 30, 31, 32, 33, 36, 37, 38, 43]</t>
+          <t>[8, 9, 16, 20, 21, 23, 25, 28, 30, 31, 32, 33, 35, 36, 38, 40, 44]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.6422619047619048</t>
+          <t>0.2604761904761905</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.07151924417082291</t>
+          <t>0.07550518323879961</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.07749785401057871</t>
+          <t>0.062309375983674545</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9110416351459691</t>
+          <t>0.9224729118090798</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.5867741107940674</t>
+          <t>10.79131031036377</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2795,79 +2795,79 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[2, 9, 11, 13, 15, 16, 18, 19, 22, 23, 24, 25, 27, 28, 30, 31, 32, 33, 34, 35, 37, 41, 44]</t>
+          <t>[10, 17, 19, 22, 25, 29, 31, 32, 33, 34, 36, 43]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.827579365079365</t>
+          <t>0.14714285714285713</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.0756366388643134</t>
+          <t>0.07025500808075055</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.0624200409834075</t>
+          <t>0.06706211525616813</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9422894069587265</t>
+          <t>0.9101948661679837</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2.5899147987365723</t>
+          <t>10.228462934494019</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 8, 13, 15, 16, 18, 21, 25, 26, 28, 29, 30, 31, 34, 35, 36, 41]</t>
+          <t>[2, 3, 4, 5, 7, 9, 11, 15, 16, 17, 18, 19, 21, 22, 23, 25, 26, 27, 32, 33, 34, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.473015873015873</t>
+          <t>0.666031746031746</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.08595191259962637</t>
+          <t>0.07604310098854299</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.09467627711443143</t>
+          <t>0.07536167143266256</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.8672331099059336</t>
+          <t>0.8865909498538768</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.51324200630188</t>
+          <t>10.669485092163086</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2879,37 +2879,37 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 11, 12, 16, 17, 18, 21, 22, 24, 27, 32, 33, 35, 36, 39, 40, 41, 44]</t>
+          <t>[1, 5, 7, 8, 11, 12, 13, 14, 15, 16, 17, 18, 19, 21, 24, 26, 27, 28, 31, 35, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.6055555555555556</t>
+          <t>0.9353968253968254</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.07116249069558439</t>
+          <t>0.07875677757371899</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.05863656604517271</t>
+          <t>0.055974839322463665</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9490734219217104</t>
+          <t>0.9374348658397486</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.604325294494629</t>
+          <t>10.295523166656494</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2921,217 +2921,217 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[6, 9, 13, 15, 20, 25, 26, 31, 32, 33, 35, 36, 43, 44]</t>
+          <t>[1, 3, 4, 11, 19, 21, 24, 26, 30, 31, 32, 33, 34, 35, 36, 37, 38, 40]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.385515873015873</t>
+          <t>0.4206349206349206</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.07701586502960428</t>
+          <t>0.07758148096435337</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.055734577407279134</t>
+          <t>0.058475844227913</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9539895094770782</t>
+          <t>0.931719031893905</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2.4606592655181885</t>
+          <t>10.077846050262451</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[0, 1, 5, 6, 9, 10, 11, 14, 15, 16, 17, 21, 27, 29, 31, 33, 34, 35, 36, 37, 41, 43, 44]</t>
+          <t>[5, 7, 10, 11, 13, 16, 17, 19, 21, 27, 28, 30, 31, 32, 33, 35, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.6857142857142857</t>
+          <t>0.5701587301587302</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0801300076819128</t>
+          <t>0.07994543914755221</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.06656441292018214</t>
+          <t>0.04711477958027854</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9343716251115181</t>
+          <t>0.9556737495120433</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.548666000366211</t>
+          <t>10.144587993621826</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[4, 5, 6, 7, 14, 15, 22, 23, 24, 25, 27, 32, 35, 36, 37, 38, 39]</t>
+          <t>[2, 3, 4, 6, 9, 15, 18, 20, 22, 23, 28, 29, 31, 33, 34, 35, 36, 37, 38, 41, 44]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.5009920634920635</t>
+          <t>0.45650793650793653</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.08024051866511236</t>
+          <t>0.07184929576659568</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.064241821749084</t>
+          <t>0.11183441655330092</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.9388715851128397</t>
+          <t>0.750254528765707</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2.513615131378174</t>
+          <t>10.752745866775513</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[0, 3, 15, 18, 24, 27, 30, 31, 33, 34, 42, 44]</t>
+          <t>[0, 2, 4, 5, 6, 7, 10, 13, 15, 16, 17, 18, 19, 20, 24, 26, 28, 30, 31, 32, 33, 34, 35, 36, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.05833333333333333</t>
+          <t>0.519047619047619</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.07728459233984575</t>
+          <t>0.08234313011796145</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.10585092528243004</t>
+          <t>0.12107426692268486</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.8340425490288147</t>
+          <t>0.7072813690218711</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.502197504043579</t>
+          <t>10.778077840805054</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[0, 1, 7, 9, 10, 15, 29, 30, 31, 33, 34, 36, 37, 44]</t>
+          <t>[1, 3, 5, 9, 13, 16, 17, 18, 23, 27, 31, 33, 35, 36, 37, 42, 43]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.2950396825396825</t>
+          <t>0.40095238095238095</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.07535178515451205</t>
+          <t>0.07906427762044202</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.05292249887458012</t>
+          <t>0.06458382382338858</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9585152838427947</t>
+          <t>0.9167097475285653</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.586012363433838</t>
+          <t>10.971871614456177</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 8, 11, 12, 17, 18, 19, 20, 24, 26, 27, 31, 32, 34, 35, 37, 38, 42, 43]</t>
+          <t>[5, 7, 8, 12, 13, 14, 15, 16, 17, 20, 22, 26, 29, 30, 31, 33, 34, 35, 36, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3141,153 +3141,153 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.6839285714285714</t>
+          <t>0.45015873015873015</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.07947210695641008</t>
+          <t>0.07858022503516662</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.07471319913180575</t>
+          <t>0.11202500213403319</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.9173196885668127</t>
+          <t>0.7494025827416309</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.591775417327881</t>
+          <t>10.5173819065094</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[2, 5, 8, 9, 11, 12, 13, 14, 16, 17, 18, 19, 21, 23, 25, 27, 28, 32, 33, 35, 37, 38, 39, 40, 42]</t>
+          <t>[2, 3, 5, 6, 8, 9, 11, 13, 14, 16, 20, 26, 29, 30, 32, 33, 34, 35, 36, 37, 39, 44]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.0682539682539682</t>
+          <t>0.5946031746031746</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.08566339515960683</t>
+          <t>0.080197950020274</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.07143817206088274</t>
+          <t>0.09243090307833005</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9244093456042322</t>
+          <t>0.8293992007474382</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.564091682434082</t>
+          <t>11.052496671676636</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 7, 8, 10, 12, 15, 16, 17, 18, 19, 20, 22, 27, 28, 32, 34, 35, 36, 37, 38, 39, 44]</t>
+          <t>[0, 1, 2, 3, 4, 6, 9, 11, 12, 13, 15, 16, 19, 21, 23, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 38, 40, 44]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1.0555555555555554</t>
+          <t>0.8193650793650793</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.07858900761442053</t>
+          <t>0.07953971824150971</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.10502378954320012</t>
+          <t>0.058774316683814436</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.8366260506174579</t>
+          <t>0.931020213423176</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.553330898284912</t>
+          <t>10.74159574508667</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[4, 5, 6, 7, 14, 15, 16, 17, 19, 20, 23, 28, 30, 32, 33, 34, 35, 37, 40]</t>
+          <t>[1, 9, 14, 16, 18, 20, 25, 27, 29, 31, 35, 36, 40, 42]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.5327380952380952</t>
+          <t>0.21158730158730157</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.07907023711040949</t>
+          <t>0.08165532188294702</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.05967596393022264</t>
+          <t>0.06487246323608119</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9472519603700051</t>
+          <t>0.9159635987231652</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.504486322402954</t>
+          <t>10.834299325942993</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3299,121 +3299,121 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[3, 8, 14, 15, 17, 19, 22, 23, 24, 26, 27, 29, 34, 36, 37, 40, 41, 44]</t>
+          <t>[0, 1, 3, 4, 5, 6, 9, 10, 11, 12, 14, 16, 19, 21, 25, 26, 28, 29, 30, 31, 32, 34, 35, 36, 37, 40, 43]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.5551587301587302</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.07381850066212031</t>
+          <t>0.08441278484686734</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.09917355396098738</t>
+          <t>0.06005094391788149</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.8543202485483089</t>
+          <t>0.9279910720042389</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.622666835784912</t>
+          <t>10.49817943572998</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 8, 10, 15, 16, 17, 19, 23, 27, 31, 32, 37, 40, 43]</t>
+          <t>[0, 2, 3, 5, 7, 9, 13, 15, 16, 17, 22, 28, 29, 31, 32, 33, 34, 37, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.5093253968253968</t>
+          <t>0.45666666666666667</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.07840231009383308</t>
+          <t>0.07978435615673589</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.09674125467300114</t>
+          <t>0.07158732161533035</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.8613784120611667</t>
+          <t>0.8976662481668654</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.547269105911255</t>
+          <t>10.748423099517822</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[1, 3, 8, 9, 12, 16, 17, 22, 26, 29, 30, 31, 32, 33, 34, 35, 37, 38, 40, 44]</t>
+          <t>[1, 2, 4, 6, 7, 8, 9, 11, 12, 14, 15, 16, 19, 20, 23, 24, 26, 27, 29, 31, 32, 33, 34, 36, 37, 38, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.4113095238095238</t>
+          <t>1.0755555555555554</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.06949266774200966</t>
+          <t>0.07755106189785985</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.09058423180136788</t>
+          <t>0.052768153624898416</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.878461842130434</t>
+          <t>0.9443979933110368</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.5956008434295654</t>
+          <t>10.979629755020142</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3425,37 +3425,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[10, 12, 13, 16, 19, 20, 25, 26, 31, 34, 35, 36, 37, 38, 40, 44]</t>
+          <t>[1, 2, 4, 7, 8, 10, 11, 12, 13, 14, 18, 19, 20, 21, 23, 25, 26, 27, 29, 31, 32, 33, 34, 35, 36, 37, 38, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.38650793650793647</t>
+          <t>1.253968253968254</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.07563658252614412</t>
+          <t>0.08176546011114742</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.08340076595991806</t>
+          <t>0.05253114095956347</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.8969738391253158</t>
+          <t>0.9448963538937479</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.629020929336548</t>
+          <t>10.976365566253662</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3467,79 +3467,79 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[2, 3, 9, 16, 18, 19, 22, 23, 24, 28, 29, 35, 36, 37, 39, 41]</t>
+          <t>[1, 5, 8, 12, 15, 16, 17, 18, 19, 20, 23, 26, 27, 28, 29, 33, 34, 36]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.6176587301587302</t>
+          <t>0.4411111111111111</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.07436547365894318</t>
+          <t>0.07811782087396635</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.07650924197890824</t>
+          <t>0.09374595469768872</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9132967780195089</t>
+          <t>0.8245102555896685</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.4832956790924072</t>
+          <t>10.874303340911865</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 9, 11, 13, 16, 17, 21, 23, 24, 26, 27, 29, 30, 31, 32, 35, 36, 37, 42, 44]</t>
+          <t>[0, 2, 5, 6, 13, 17, 22, 24, 25, 26, 28, 29, 30, 31, 33, 36, 37]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.5267857142857143</t>
+          <t>0.363015873015873</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.07724095455023147</t>
+          <t>0.08143312866581083</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.054025413853610274</t>
+          <t>0.09045870108337283</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9567681676605468</t>
+          <t>0.8366017640294146</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.594954490661621</t>
+          <t>10.240453243255615</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3551,7 +3551,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 10, 11, 14, 16, 19, 22, 25, 28, 29, 31, 32, 35, 37, 43, 44]</t>
+          <t>[9, 10, 15, 22, 23, 24, 25, 28, 29, 31, 32, 33, 35, 36, 37, 39, 40, 44]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3561,111 +3561,111 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.7942460317460317</t>
+          <t>0.4253968253968254</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.07564201666798584</t>
+          <t>0.07627733901538973</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.09316149256323827</t>
+          <t>0.06753447704981502</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.8714475630370475</t>
+          <t>0.9089252995438705</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2.5492913722991943</t>
+          <t>10.81841230392456</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[2, 4, 7, 9, 10, 13, 16, 17, 18, 19, 22, 29, 31, 33, 34, 37, 42, 43]</t>
+          <t>[1, 2, 5, 6, 8, 9, 10, 11, 12, 14, 15, 16, 17, 20, 22, 23, 24, 26, 27, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 41, 44]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.626984126984127</t>
+          <t>1.0396825396825398</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.07782378599785345</t>
+          <t>0.07926473493371695</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.0673142469136849</t>
+          <t>0.09331065961349476</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9328847177223709</t>
+          <t>0.8261361917924803</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.5598225593566895</t>
+          <t>10.705125331878662</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[6, 8, 14, 16, 17, 19, 20, 24, 28, 31, 32, 33, 35, 38, 40]</t>
+          <t>[0, 1, 2, 8, 10, 15, 17, 18, 19, 20, 23, 26, 29, 31, 33, 34, 36, 37, 42]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.4470238095238095</t>
+          <t>0.27174603174603174</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.0750627751782039</t>
+          <t>0.07414842648750428</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.08106521412304524</t>
+          <t>0.05409504921723398</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9026633250379553</t>
+          <t>0.9415665256427841</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2.63913893699646</t>
+          <t>10.551162481307983</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3677,163 +3677,163 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 8, 10, 16, 19, 21, 25, 27, 28, 31, 34, 35, 36, 38, 41, 44]</t>
+          <t>[3, 6, 8, 12, 14, 16, 17, 19, 21, 24, 27, 29, 30, 31, 32, 34, 35, 37, 40]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.5956349206349206</t>
+          <t>0.44555555555555554</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.07368357560157798</t>
+          <t>0.07272046126717172</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.11289471147422776</t>
+          <t>0.09295585640771303</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.8112205857545578</t>
+          <t>0.8274558728885981</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2.612994909286499</t>
+          <t>10.858164548873901</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 7, 15, 18, 19, 20, 25, 26, 27, 30, 31, 33, 34, 35, 36, 37, 38, 42, 44]</t>
+          <t>[3, 4, 9, 11, 15, 16, 17, 18, 19, 20, 21, 22, 23, 26, 27, 28, 29, 31, 33, 34, 35, 36, 41, 44]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.6218253968253968</t>
+          <t>0.7503174603174603</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.07331900356777166</t>
+          <t>0.07373602537531784</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.05969698769833311</t>
+          <t>0.10086101486637747</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.9472147876852764</t>
+          <t>0.7968609877298671</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.617692232131958</t>
+          <t>10.338467121124268</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 7, 8, 10, 12, 14, 15, 17, 20, 23, 24, 25, 26, 27, 29, 31, 33, 34, 35, 37, 44]</t>
+          <t>[3, 9, 11, 15, 17, 20, 21, 24, 31, 32, 33, 37, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.5111111111111111</t>
+          <t>0.27174603174603174</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.07234211572603966</t>
+          <t>0.07434385387449412</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.1069848816876048</t>
+          <t>0.08777633285152109</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.8304677758474068</t>
+          <t>0.8461485709462667</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.5339322090148926</t>
+          <t>10.497239351272583</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[1, 3, 8, 11, 14, 15, 16, 17, 18, 20, 24, 26, 27, 28, 29, 31, 33, 35, 40, 41]</t>
+          <t>[1, 2, 3, 7, 8, 10, 11, 13, 20, 21, 22, 23, 24, 25, 27, 28, 29, 34, 36, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.5511904761904762</t>
+          <t>1.0244444444444445</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.07686082747168307</t>
+          <t>0.08185785255868458</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.07885684945768268</t>
+          <t>0.06929828365086836</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.907894347838941</t>
+          <t>0.9041059578194401</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2.4604904651641846</t>
+          <t>10.71139931678772</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3845,37 +3845,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 6, 14, 15, 16, 17, 20, 21, 25, 28, 30, 31, 32, 34, 35, 36, 37, 40, 42]</t>
+          <t>[2, 3, 4, 5, 6, 9, 12, 13, 15, 18, 19, 21, 24, 25, 26, 27, 29, 31, 32, 33, 35, 36, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.5559523809523809</t>
+          <t>0.5414285714285715</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.07899322303141258</t>
+          <t>0.08176509730412898</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.06252159058044206</t>
+          <t>0.07391771653295058</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9421014783859316</t>
+          <t>0.8908952261715942</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2.6114094257354736</t>
+          <t>10.803122758865356</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3887,37 +3887,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 9, 12, 15, 16, 17, 19, 20, 21, 22, 23, 27, 31, 32, 33, 34, 36, 42, 44]</t>
+          <t>[0, 1, 3, 6, 7, 11, 14, 15, 16, 17, 18, 19, 20, 23, 24, 27, 29, 32, 33, 35, 36, 38, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.5438492063492063</t>
+          <t>0.8884126984126983</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.07562737200055836</t>
+          <t>0.08447961507233878</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.06634726724584031</t>
+          <t>0.07576851864620461</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9347991109858979</t>
+          <t>0.8853631452897671</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.5271377563476562</t>
+          <t>10.816624641418457</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3929,121 +3929,121 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[3, 4, 7, 10, 11, 12, 13, 14, 16, 17, 25, 27, 28, 30, 31, 32, 34, 35, 36]</t>
+          <t>[1, 2, 3, 4, 10, 11, 13, 15, 17, 21, 23, 26, 27, 28, 30, 31, 32, 33, 35, 36, 38, 39, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.5880952380952381</t>
+          <t>1.0176190476190476</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.0693516944511284</t>
+          <t>0.08597148209884276</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.09291234863273914</t>
+          <t>0.045955268218008515</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.8721342251299522</t>
+          <t>0.9578286718082356</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.544938087463379</t>
+          <t>10.939310312271118</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[0, 1, 8, 11, 12, 15, 17, 18, 20, 22, 23, 25, 26, 28, 30, 35, 36, 37, 39, 41, 44]</t>
+          <t>[1, 3, 4, 7, 8, 9, 13, 15, 16, 17, 18, 20, 23, 27, 28, 29, 31, 32, 34, 35, 36, 37, 38, 39, 41, 44]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9341269841269841</t>
+          <t>0.8882539682539683</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.07215237499422325</t>
+          <t>0.07961770726945844</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.1094642217886456</t>
+          <t>0.05082603878403154</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.8225190167629244</t>
+          <t>0.9484155034833954</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.5307564735412598</t>
+          <t>10.851128339767456</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[2, 3, 10, 12, 13, 14, 16, 17, 19, 20, 22, 23, 25, 26, 27, 28, 29, 34, 35, 36, 37, 40, 42, 44]</t>
+          <t>[0, 1, 3, 11, 12, 17, 18, 19, 21, 22, 23, 24, 27, 28, 29, 31, 33, 35, 36, 37, 41, 43]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.9444444444444444</t>
+          <t>0.8279365079365079</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.07902773214586253</t>
+          <t>0.0724666007697495</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.11288977132713106</t>
+          <t>0.07206774951761372</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.8112371069477704</t>
+          <t>0.8962881001867423</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2.5783605575561523</t>
+          <t>11.042823314666748</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4055,79 +4055,79 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 6, 14, 16, 17, 19, 21, 22, 24, 25, 26, 27, 29, 30, 32, 33, 34, 35, 36, 37, 39, 42, 44]</t>
+          <t>[10, 17, 19, 21, 22, 23, 24, 28, 30, 31, 33, 34, 35, 36, 41, 42]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.9541666666666666</t>
+          <t>0.24079365079365078</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.0739424395557062</t>
+          <t>0.07126117887932869</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.09419700139881483</t>
+          <t>0.08296244890475482</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.8685739079926056</t>
+          <t>0.8625610605277317</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.62141489982605</t>
+          <t>10.722502708435059</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[0, 6, 7, 8, 9, 11, 14, 15, 25, 27, 28, 31, 32, 33, 34, 40, 42, 44]</t>
+          <t>[1, 11, 13, 15, 19, 20, 21, 26, 27, 31, 32, 34, 35, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.6162698412698413</t>
+          <t>0.463015873015873</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0791995390398971</t>
+          <t>0.0687768619098985</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.11049111314774077</t>
+          <t>0.056233293160394125</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.8191734751373433</t>
+          <t>0.9368557652743635</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2.6252834796905518</t>
+          <t>10.764419078826904</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4139,175 +4139,175 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[0, 6, 9, 13, 15, 16, 24, 25, 26, 29, 30, 31, 32, 33, 34, 36, 37, 40]</t>
+          <t>[3, 9, 16, 20, 21, 22, 23, 24, 25, 27, 28, 31, 32, 33, 35, 36, 39, 40, 44]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.4220238095238095</t>
+          <t>0.4477777777777778</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.0675131110084923</t>
+          <t>0.07555255704984166</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.06128392968929974</t>
+          <t>0.08281105744848961</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.9443710773035325</t>
+          <t>0.8630622052477765</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2.6200671195983887</t>
+          <t>10.556944131851196</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 8, 10, 11, 12, 14, 16, 17, 18, 19, 24, 25, 26, 27, 29, 30, 31, 32, 33, 34, 35, 40]</t>
+          <t>[7, 11, 12, 15, 16, 17, 20, 22, 25, 31, 35, 36, 37, 38, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.7244047619047619</t>
+          <t>0.4368253968253968</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.08012563147944787</t>
+          <t>0.08374615053673654</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.09487322477072975</t>
+          <t>0.08465435933218224</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.8666801662205945</t>
+          <t>0.8568981251912263</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2.617757797241211</t>
+          <t>10.546127319335938</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[0, 6, 7, 9, 10, 13, 15, 17, 19, 24, 27, 29, 30, 31, 32, 33, 35, 37, 42, 43]</t>
+          <t>[1, 2, 3, 5, 8, 9, 10, 12, 15, 17, 19, 20, 23, 26, 29, 31, 32, 33, 34, 35, 37, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.5146825396825396</t>
+          <t>0.4477777777777778</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.07782828043532355</t>
+          <t>0.07799900911841709</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.06154953889722606</t>
+          <t>0.06047203448521606</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9438878324020598</t>
+          <t>0.9269776460148151</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.495033025741577</t>
+          <t>10.64112639427185</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[1, 5, 6, 9, 15, 17, 18, 19, 21, 24, 27, 28, 33, 35, 36, 37, 41, 43, 44]</t>
+          <t>[1, 2, 6, 8, 9, 10, 11, 12, 15, 19, 24, 27, 28, 30, 31, 32, 33, 34, 35, 36, 41]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.6857142857142857</t>
+          <t>0.8525396825396825</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.07977878793728024</t>
+          <t>0.07612312313493123</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.07010342433165792</t>
+          <t>0.08382015912496821</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.9272076227046411</t>
+          <t>0.8597045356234768</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2.621159553527832</t>
+          <t>11.213921546936035</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[2, 8, 11, 12, 16, 23, 25, 26, 27, 30, 32, 36, 37, 38, 43]</t>
+          <t>[1, 2, 3, 8, 11, 12, 13, 14, 15, 17, 19, 27, 31, 33, 34]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4317,81 +4317,81 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.4299603174603175</t>
+          <t>0.36730158730158724</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.0700529454103201</t>
+          <t>0.0801703319300653</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.07690276715662188</t>
+          <t>0.07584300844166131</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9124025684368691</t>
+          <t>0.885137630165747</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2.623934030532837</t>
+          <t>10.856254577636719</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[4, 5, 8, 9, 11, 12, 13, 14, 15, 16, 17, 19, 23, 27, 28, 31, 34, 35, 36, 37, 38, 40, 41, 44]</t>
+          <t>[7, 11, 13, 15, 16, 18, 19, 20, 21, 22, 23, 26, 31, 32, 33, 34, 36, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.9305555555555556</t>
+          <t>0.3566666666666667</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.08220318420279958</t>
+          <t>0.06569471816445027</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.1166831423185289</t>
+          <t>0.11756167989668029</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.798338185346919</t>
+          <t>0.7240196026713651</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2.49723744392395</t>
+          <t>10.925843238830566</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 5, 6, 8, 12, 15, 22, 23, 28, 30, 32, 33, 34, 35, 36, 39, 40, 41, 43, 44]</t>
+          <t>[0, 3, 5, 6, 8, 9, 12, 16, 18, 20, 22, 25, 26, 28, 29, 31, 32, 33, 34, 35, 36, 37, 44]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4401,111 +4401,111 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.8823412698412698</t>
+          <t>0.7238095238095238</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.08261762145829969</t>
+          <t>0.08145311235063865</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.10985899799764452</t>
+          <t>0.07394411908594108</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.821236559139785</t>
+          <t>0.890817270326254</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.63204288482666</t>
+          <t>10.87147307395935</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 8, 11, 12, 14, 17, 19, 21, 22, 23, 24, 25, 27, 28, 29, 30, 33, 36, 37, 38, 41, 42]</t>
+          <t>[1, 7, 11, 13, 15, 21, 25, 26, 27, 28, 31, 33, 34, 35, 36, 39, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.2646825396825396</t>
+          <t>0.7280952380952381</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.07968393033878032</t>
+          <t>0.07975110869427288</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.10432699480308556</t>
+          <t>0.0586258649654148</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.8387867129173123</t>
+          <t>0.9313682305898737</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2.505082607269287</t>
+          <t>10.858595371246338</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[1, 7, 15, 17, 19, 23, 25, 27, 29, 30, 32, 34, 35, 36, 38, 41, 42]</t>
+          <t>[0, 3, 8, 10, 16, 18, 19, 21, 22, 29, 31, 32, 33, 35, 36, 40]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.5013888888888889</t>
+          <t>0.28746031746031747</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.07271151731249599</t>
+          <t>0.07706158155194563</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.07784542453938414</t>
+          <t>0.07100651752258114</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9102419061370146</t>
+          <t>0.899320025743013</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.613762617111206</t>
+          <t>10.750002384185791</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4517,37 +4517,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[3, 8, 11, 18, 20, 24, 26, 27, 33, 34, 35, 36, 37, 39, 40, 41, 44]</t>
+          <t>[0, 2, 7, 8, 15, 17, 19, 20, 23, 26, 28, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.47757936507936505</t>
+          <t>0.7333333333333334</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.0658682497707011</t>
+          <t>0.07543706273720349</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.05645600014347311</t>
+          <t>0.05305274797807638</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9527906903945783</t>
+          <t>0.9437966196469831</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.5798823833465576</t>
+          <t>10.780292510986328</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4559,126 +4559,126 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 8, 10, 15, 21, 22, 23, 24, 25, 26, 27, 28, 29, 31, 34, 35, 37, 39, 40, 41, 44]</t>
+          <t>[0, 1, 2, 4, 5, 6, 7, 8, 11, 12, 14, 15, 18, 21, 22, 23, 26, 27, 28, 29, 31, 32, 33, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.8378968253968254</t>
+          <t>1.1730158730158728</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.0758530963199621</t>
+          <t>0.08193538706763928</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.1003308695098041</t>
+          <t>0.08166070082494975</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.8509003615532704</t>
+          <t>0.866840279609447</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.5776689052581787</t>
+          <t>10.929534912109375</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[3, 7, 9, 11, 14, 15, 19, 23, 27, 28, 29, 30, 31, 33, 35, 36, 37, 44]</t>
+          <t>[2, 3, 4, 8, 11, 14, 15, 16, 17, 21, 23, 24, 25, 27, 30, 31, 32, 33, 35, 36, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.6371031746031746</t>
+          <t>0.8446031746031746</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.0687046646029894</t>
+          <t>0.08373484953280473</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.05788542271027388</t>
+          <t>0.0797228786798176</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.9503698193016231</t>
+          <t>0.8730850996486712</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2.6298046112060547</t>
+          <t>10.340445756912231</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 8, 9, 10, 11, 13, 14, 15, 16, 17, 18, 19, 22, 26, 27, 31, 32, 33, 34, 35, 37, 39, 41, 43, 44]</t>
+          <t>[0, 3, 8, 13, 15, 16, 17, 18, 19, 20, 23, 24, 28, 30, 31, 33, 34, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.2251984126984126</t>
+          <t>0.2606349206349206</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.07952800710438912</t>
+          <t>0.073699381897855</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.0913473401906042</t>
+          <t>0.10460477018824174</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.876405469862735</t>
+          <t>0.7815009020604962</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2.5875511169433594</t>
+          <t>10.132526636123657</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
